--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Intellj Workspace\Naukari.com\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB11A115-6B4D-4BBD-BEF1-1A1A32819707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE48D2ED-ABF6-4ED3-92B3-F681F725598B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5052" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AutomateLoginFunctionality" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +58,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,9 +87,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -365,19 +374,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.21875" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -385,13 +395,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Intellj Workspace\Naukari.com\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE48D2ED-ABF6-4ED3-92B3-F681F725598B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B12BB0-079B-4D3E-A2A5-6A02379AD4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5052" yWindow="2160" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
